--- a/biology/Zoologie/Cténolabre/Cténolabre.xlsx
+++ b/biology/Zoologie/Cténolabre/Cténolabre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ct%C3%A9nolabre</t>
+          <t>Cténolabre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ctenolabrus rupestris
 Le cténolabre, Ctenolabrus rupestris, est une espèce de poissons marins appartenant à la famille des Labridae. C'est la seule espèce de son genre Ctenolabrus (monotypique).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ct%C3%A9nolabre</t>
+          <t>Cténolabre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cténolabre est présent dans l'Atlantique est, de la Norvège au Maroc. On peut aussi le trouver en Méditerranée. Il vit exclusivement dans les secteurs rocheux, ou les herbiers, dans la zone côtière (1–50 m).
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ct%C3%A9nolabre</t>
+          <t>Cténolabre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cténolabre présente de très nombreuses similitudes avec les autres labridés. Cependant, il est aisément reconnaissable à la présence de deux ocelles noirs, le premier à la naissance antérieure de la nageoire dorsale, le second sur le dessus du pédoncule caudal. Il dépasse rarement une quinzaine de centimètres.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ct%C3%A9nolabre</t>
+          <t>Cténolabre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cténolabre se nourrit de bryozoaires, de crustacés, et de petits mollusques.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ct%C3%A9nolabre</t>
+          <t>Cténolabre</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La reproduction a lieu en été, et la ponte a lieu sur un territoire que le mâle défend.
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ct%C3%A9nolabre</t>
+          <t>Cténolabre</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Ce taxon admet comme synonyme :
 Labrus rupestris Linnaeus, 1758</t>
